--- a/patient_data/patient_25.xlsx
+++ b/patient_data/patient_25.xlsx
@@ -601,19 +601,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -743,13 +743,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -897,13 +897,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1238,10 +1238,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1392,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
